--- a/biology/Botanique/Iris_latifolia/Iris_latifolia.xlsx
+++ b/biology/Botanique/Iris_latifolia/Iris_latifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Iris des Pyrénées
 Iris latifolia, l'Iris des Pyrénées Écouter ou Iris à larges feuilles, est une plante herbacée de la famille des Iridaceae.
@@ -515,7 +527,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Iris latifolia est un iris bulbeux. Il forme une tige érigée de 30 à 70 cm, à courtes feuilles caulinaires engainantes (les basales étant longues et étroites).
 La floraison a lieu en été, de juillet à août. Il apparaît alors 2 à 3 fleurs bleu-vif disposées en cyme unipare peu fournie. La pollinisation est entomogame. 
@@ -548,10 +562,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Originaire des Pyrénées et des Monts Cantabriques, on le rencontre par exemple en abondance à Gavarnie, dans les pelouses de montagne.
-Cet iris est aussi connu comme sous le nom d'iris d'Angleterre. Cette appellation erronée provient du fait qu'aux environs de l'an 1600, le couvent d'Eichstätt en Allemagne reçut les premiers gros bulbes ovoïdes d'Angleterre, ce qui fit croire aux moines que cet iris croissait spontanément près de Bristol. C'est ainsi que, cultivée sous le nom Iris bulbosa angliana, cette plante devint l'iris d'Angleterre[1]. 
+Cet iris est aussi connu comme sous le nom d'iris d'Angleterre. Cette appellation erronée provient du fait qu'aux environs de l'an 1600, le couvent d'Eichstätt en Allemagne reçut les premiers gros bulbes ovoïdes d'Angleterre, ce qui fit croire aux moines que cet iris croissait spontanément près de Bristol. C'est ainsi que, cultivée sous le nom Iris bulbosa angliana, cette plante devint l'iris d'Angleterre. 
 L'iris des Pyrénées est rarement cultivé. Les iris d'Angleterre proposés par les bulbiculteurs sont des hybrides et des cultivars issus de cette espèce.
 </t>
         </is>
